--- a/Data/Test SWV/Excel Files/Apt2.xlsx
+++ b/Data/Test SWV/Excel Files/Apt2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A147"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,1029 +424,2974 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mar. 30, 2023   18:46:34,,</t>
-        </is>
-      </c>
+          <t>Mar. 30</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   18:46:34</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Square Wave Voltammetry,,,</t>
-        </is>
-      </c>
+          <t>Square Wave Voltammetry</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>File: c:\users\lukas\onedrive\documents\wearables\chi swv analysis\test swv\apt2.csv,,,</t>
-        </is>
-      </c>
+          <t>File: c:\users\lukas\onedrive\documents\wearables\chi swv analysis\test swv\apt2.csv</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Source:  Experiment,,,</t>
-        </is>
-      </c>
+          <t>Data Source:  Experiment</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Instrument Model:  CHI840D,,,</t>
-        </is>
-      </c>
+          <t>Instrument Model:  CHI840D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Data Proc:  Smoothing,,,</t>
-        </is>
-      </c>
+          <t>Data Proc:  Smoothing</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Header: ,,,</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Header: </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Note: ,,,</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Note: </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>,,,</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Init E (V) = 0,,,</t>
-        </is>
-      </c>
+          <t>Init E (V) = 0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Final E (V) = -0.5,,,</t>
-        </is>
-      </c>
+          <t>Final E (V) = -0.5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Incr E (V) = 0.004,,,</t>
-        </is>
-      </c>
+          <t>Incr E (V) = 0.004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amplitude (V) = 0.05,,,</t>
-        </is>
-      </c>
+          <t>Amplitude (V) = 0.05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Frequency (Hz) = 25,,,</t>
-        </is>
-      </c>
+          <t>Frequency (Hz) = 25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Quiet Time (sec) = 2,,,</t>
-        </is>
-      </c>
+          <t>Quiet Time (sec) = 2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitivity (A/V) = 1e-5,,,</t>
-        </is>
-      </c>
+          <t>Sensitivity (A/V) = 1e-5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>,,,</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference:,,,</t>
-        </is>
-      </c>
+          <t>Difference:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Forward:,,,</t>
-        </is>
-      </c>
+          <t>Forward:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Reverse:,,,</t>
-        </is>
-      </c>
+          <t>Reverse:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>,,,</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.004,-2.92E-07,-1.34E-07,1.58E-07</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-2.92E-07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.58E-07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.008,-2.85E-07,-1.36E-07,1.49E-07</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-2.85E-07</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.49E-07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.012,-2.78E-07,-1.37E-07,1.41E-07</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-2.78E-07</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-1.37E-07</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.41E-07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.016,-2.73E-07,-1.38E-07,1.35E-07</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-2.73E-07</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1.38E-07</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35E-07</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.02,-2.70E-07,-1.38E-07,1.31E-07</t>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-2.70E-07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-1.38E-07</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.31E-07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.024,-2.64E-07,-1.37E-07,1.27E-07</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-2.64E-07</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-1.37E-07</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.27E-07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.028,-2.59E-07,-1.38E-07,1.22E-07</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-2.59E-07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-1.38E-07</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.22E-07</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.032,-2.55E-07,-1.36E-07,1.19E-07</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-2.55E-07</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.19E-07</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.036,-2.50E-07,-1.36E-07,1.14E-07</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-2.50E-07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.14E-07</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.04,-2.49E-07,-1.36E-07,1.12E-07</t>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>-2.49E-07</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.12E-07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.044,-2.45E-07,-1.36E-07,1.10E-07</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-2.45E-07</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.10E-07</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.048,-2.41E-07,-1.36E-07,1.05E-07</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-2.41E-07</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.05E-07</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.052,-2.37E-07,-1.34E-07,1.03E-07</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-2.37E-07</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.03E-07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.056,-2.34E-07,-1.34E-07,9.98E-08</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-2.34E-07</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.98E-08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.06,-2.33E-07,-1.35E-07,9.85E-08</t>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-2.33E-07</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-1.35E-07</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.85E-08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.064,-2.31E-07,-1.34E-07,9.68E-08</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-2.31E-07</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.68E-08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.068,-2.28E-07,-1.34E-07,9.37E-08</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-2.28E-07</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.37E-08</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.072,-2.25E-07,-1.33E-07,9.21E-08</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-2.25E-07</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.21E-08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.076,-2.22E-07,-1.32E-07,8.97E-08</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-2.22E-07</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-1.32E-07</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.97E-08</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.08,-2.22E-07,-1.33E-07,8.91E-08</t>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-2.22E-07</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.91E-08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.084,-2.20E-07,-1.32E-07,8.80E-08</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-2.20E-07</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-1.32E-07</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.80E-08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.088,-2.17E-07,-1.32E-07,8.50E-08</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-2.17E-07</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-1.32E-07</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.50E-08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.092,-2.15E-07,-1.31E-07,8.37E-08</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-2.15E-07</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.37E-08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.096,-2.12E-07,-1.30E-07,8.16E-08</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>-2.12E-07</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-1.30E-07</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.16E-08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.1,-2.12E-07,-1.31E-07,8.11E-08</t>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>-2.12E-07</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.11E-08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.104,-2.11E-07,-1.31E-07,8.01E-08</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-2.11E-07</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.01E-08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.108,-2.09E-07,-1.31E-07,7.74E-08</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-2.09E-07</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.74E-08</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.112,-2.06E-07,-1.30E-07,7.64E-08</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-2.06E-07</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-1.30E-07</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.64E-08</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.116,-2.04E-07,-1.29E-07,7.46E-08</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>-2.04E-07</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-1.29E-07</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.46E-08</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.12,-2.05E-07,-1.30E-07,7.44E-08</t>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-2.05E-07</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-1.30E-07</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.44E-08</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.124,-2.04E-07,-1.30E-07,7.39E-08</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>-2.04E-07</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-1.30E-07</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.39E-08</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.128,-2.02E-07,-1.31E-07,7.13E-08</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>-2.02E-07</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.13E-08</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.132,-2.01E-07,-1.30E-07,7.07E-08</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>-2.01E-07</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-1.30E-07</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.07E-08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.136,-1.98E-07,-1.29E-07,6.91E-08</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>-1.98E-07</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-1.29E-07</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.91E-08</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.14,-2.00E-07,-1.31E-07,6.90E-08</t>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-2.00E-07</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.90E-08</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.144,-1.99E-07,-1.30E-07,6.84E-08</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-1.99E-07</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-1.30E-07</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.84E-08</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.148,-1.97E-07,-1.31E-07,6.60E-08</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>-1.97E-07</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.60E-08</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.152,-1.96E-07,-1.31E-07,6.55E-08</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>-1.96E-07</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.55E-08</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.156,-1.95E-07,-1.31E-07,6.41E-08</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>-1.95E-07</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-1.31E-07</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.41E-08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.16,-1.97E-07,-1.33E-07,6.42E-08</t>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>-1.97E-07</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.42E-08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.164,-1.98E-07,-1.34E-07,6.40E-08</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-1.98E-07</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.40E-08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.168,-1.97E-07,-1.35E-07,6.19E-08</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-1.97E-07</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-1.35E-07</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.19E-08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.172,-1.97E-07,-1.35E-07,6.19E-08</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-1.97E-07</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-1.35E-07</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.19E-08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.176,-1.98E-07,-1.36E-07,6.11E-08</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-1.98E-07</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.11E-08</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.18,-2.01E-07,-1.39E-07,6.15E-08</t>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-2.01E-07</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-1.39E-07</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.15E-08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.184,-2.02E-07,-1.41E-07,6.15E-08</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-2.02E-07</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-1.41E-07</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.15E-08</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.188,-2.03E-07,-1.44E-07,5.95E-08</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-2.03E-07</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-1.44E-07</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.95E-08</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.192,-2.05E-07,-1.45E-07,6.00E-08</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-2.05E-07</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-1.45E-07</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.00E-08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.196,-2.07E-07,-1.47E-07,5.95E-08</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-2.07E-07</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-1.47E-07</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.95E-08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.2,-2.13E-07,-1.52E-07,6.06E-08</t>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-2.13E-07</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-1.52E-07</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.06E-08</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.204,-2.17E-07,-1.55E-07,6.14E-08</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-2.17E-07</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-1.55E-07</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.14E-08</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.208,-2.20E-07,-1.59E-07,6.05E-08</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-2.20E-07</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-1.59E-07</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.05E-08</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.212,-2.24E-07,-1.63E-07,6.16E-08</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-2.24E-07</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-1.63E-07</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.16E-08</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.216,-2.28E-07,-1.66E-07,6.21E-08</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>-2.28E-07</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-1.66E-07</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.21E-08</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.22,-2.37E-07,-1.72E-07,6.42E-08</t>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-2.37E-07</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-1.72E-07</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.42E-08</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.224,-2.43E-07,-1.76E-07,6.63E-08</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-2.43E-07</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-1.76E-07</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.63E-08</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.228,-2.48E-07,-1.81E-07,6.65E-08</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-2.48E-07</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-1.81E-07</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.65E-08</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.232,-2.54E-07,-1.85E-07,6.92E-08</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>-2.54E-07</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-1.85E-07</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.92E-08</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.236,-2.59E-07,-1.88E-07,7.11E-08</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>-2.59E-07</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-1.88E-07</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.11E-08</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.24,-2.68E-07,-1.93E-07,7.45E-08</t>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>-2.68E-07</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-1.93E-07</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.45E-08</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.244,-2.74E-07,-1.96E-07,7.78E-08</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-2.74E-07</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-1.96E-07</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.78E-08</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.248,-2.78E-07,-1.99E-07,7.92E-08</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-2.78E-07</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-1.99E-07</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.92E-08</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.252,-2.82E-07,-2.00E-07,8.27E-08</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>-2.82E-07</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-2.00E-07</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.27E-08</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.256,-2.86E-07,-2.00E-07,8.55E-08</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>-2.86E-07</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-2.00E-07</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.55E-08</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.26,-2.91E-07,-2.02E-07,8.96E-08</t>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>-2.91E-07</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-2.02E-07</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.96E-08</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.264,-2.93E-07,-2.00E-07,9.29E-08</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>-2.93E-07</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-2.00E-07</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.29E-08</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.268,-2.92E-07,-1.98E-07,9.39E-08</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>-2.92E-07</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-1.98E-07</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.39E-08</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.272,-2.91E-07,-1.94E-07,9.62E-08</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>-2.91E-07</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-1.94E-07</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.62E-08</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.276,-2.87E-07,-1.90E-07,9.69E-08</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>-2.87E-07</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-1.90E-07</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9.69E-08</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.28,-2.85E-07,-1.87E-07,9.77E-08</t>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>-2.85E-07</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-1.87E-07</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.77E-08</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.284,-2.79E-07,-1.81E-07,9.72E-08</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>-2.79E-07</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-1.81E-07</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9.72E-08</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.288,-2.70E-07,-1.76E-07,9.41E-08</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-2.70E-07</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-1.76E-07</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.41E-08</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.292,-2.62E-07,-1.70E-07,9.22E-08</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>-2.62E-07</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-1.70E-07</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9.22E-08</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.296,-2.52E-07,-1.64E-07,8.85E-08</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>-2.52E-07</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-1.64E-07</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.85E-08</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.3,-2.45E-07,-1.60E-07,8.52E-08</t>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>-2.45E-07</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-1.60E-07</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>8.52E-08</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.304,-2.35E-07,-1.54E-07,8.09E-08</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>-2.35E-07</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-1.54E-07</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.09E-08</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.308,-2.24E-07,-1.50E-07,7.43E-08</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-2.24E-07</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>-1.50E-07</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.43E-08</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.312,-2.15E-07,-1.45E-07,7.00E-08</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-2.15E-07</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>-1.45E-07</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.00E-08</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.316,-2.07E-07,-1.42E-07,6.47E-08</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>-2.07E-07</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-1.42E-07</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6.47E-08</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.32,-2.01E-07,-1.41E-07,6.04E-08</t>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>-2.01E-07</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>-1.41E-07</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.04E-08</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.324,-1.93E-07,-1.38E-07,5.58E-08</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-1.93E-07</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>-1.38E-07</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.58E-08</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.328,-1.86E-07,-1.36E-07,5.01E-08</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>-1.86E-07</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.01E-08</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.332,-1.80E-07,-1.34E-07,4.67E-08</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>-1.80E-07</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.67E-08</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.336,-1.75E-07,-1.33E-07,4.25E-08</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>-1.75E-07</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.25E-08</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.34,-1.73E-07,-1.33E-07,3.99E-08</t>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>-1.73E-07</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.99E-08</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.344,-1.69E-07,-1.32E-07,3.68E-08</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>-1.69E-07</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>-1.32E-07</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.68E-08</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.348,-1.66E-07,-1.33E-07,3.26E-08</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>-1.66E-07</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.26E-08</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.352,-1.64E-07,-1.33E-07,3.11E-08</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>-1.64E-07</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>-1.33E-07</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.11E-08</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.356,-1.62E-07,-1.34E-07,2.84E-08</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>-1.62E-07</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>-1.34E-07</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.84E-08</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.36,-1.63E-07,-1.36E-07,2.69E-08</t>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>-1.63E-07</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.69E-08</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.364,-1.61E-07,-1.36E-07,2.51E-08</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>-1.61E-07</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>-1.36E-07</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.51E-08</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.368,-1.60E-07,-1.38E-07,2.21E-08</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>-1.60E-07</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>-1.38E-07</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.21E-08</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.372,-1.60E-07,-1.39E-07,2.17E-08</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>-1.60E-07</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>-1.39E-07</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.17E-08</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.376,-1.61E-07,-1.40E-07,2.01E-08</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>-1.61E-07</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>-1.40E-07</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.01E-08</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.38,-1.63E-07,-1.44E-07,1.97E-08</t>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>-1.63E-07</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>-1.44E-07</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.97E-08</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.384,-1.63E-07,-1.44E-07,1.87E-08</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>-1.63E-07</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>-1.44E-07</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.87E-08</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.388,-1.63E-07,-1.47E-07,1.62E-08</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>-1.63E-07</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>-1.47E-07</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.62E-08</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.392,-1.65E-07,-1.48E-07,1.63E-08</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>-1.65E-07</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-1.48E-07</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.63E-08</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.396,-1.65E-07,-1.51E-07,1.44E-08</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>-1.65E-07</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>-1.51E-07</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.44E-08</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.4,-1.69E-07,-1.55E-07,1.39E-08</t>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>-1.69E-07</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>-1.55E-07</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.39E-08</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.404,-1.70E-07,-1.57E-07,1.30E-08</t>
+          <t>-0.404</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>-1.70E-07</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>-1.57E-07</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.30E-08</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-0.408,-1.71E-07,-1.60E-07,1.06E-08</t>
+          <t>-0.408</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>-1.71E-07</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>-1.60E-07</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.06E-08</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-0.412,-1.74E-07,-1.63E-07,1.08E-08</t>
+          <t>-0.412</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>-1.74E-07</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>-1.63E-07</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.08E-08</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-0.416,-1.76E-07,-1.67E-07,9.42E-09</t>
+          <t>-0.416</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>-1.76E-07</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>-1.67E-07</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>9.42E-09</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-0.42,-1.81E-07,-1.72E-07,8.71E-09</t>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>-1.81E-07</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>-1.72E-07</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8.71E-09</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-0.424,-1.83E-07,-1.75E-07,7.82E-09</t>
+          <t>-0.424</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>-1.83E-07</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>-1.75E-07</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>7.82E-09</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-0.428,-1.85E-07,-1.80E-07,5.31E-09</t>
+          <t>-0.428</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>-1.85E-07</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>-1.80E-07</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.31E-09</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-0.432,-1.89E-07,-1.84E-07,5.26E-09</t>
+          <t>-0.432</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>-1.89E-07</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>-1.84E-07</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5.26E-09</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-0.436,-1.92E-07,-1.89E-07,3.25E-09</t>
+          <t>-0.436</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>-1.92E-07</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>-1.89E-07</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.25E-09</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-0.44,-1.98E-07,-1.95E-07,2.19E-09</t>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>-1.98E-07</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>-1.95E-07</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.19E-09</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-0.444,-2.00E-07,-2.00E-07,7.22E-10</t>
+          <t>-0.444</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>-2.00E-07</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>-2.00E-07</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>7.22E-10</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-0.448,-2.04E-07,-2.06E-07,-2.25E-09</t>
+          <t>-0.448</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>-2.04E-07</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>-2.06E-07</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>-2.25E-09</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-0.452,-2.09E-07,-2.12E-07,-2.64E-09</t>
+          <t>-0.452</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>-2.09E-07</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>-2.12E-07</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>-2.64E-09</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-0.456,-2.13E-07,-2.19E-07,-5.30E-09</t>
+          <t>-0.456</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>-2.13E-07</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>-2.19E-07</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>-5.30E-09</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-0.46,-2.20E-07,-2.27E-07,-7.23E-09</t>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>-2.20E-07</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>-2.27E-07</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>-7.23E-09</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-0.464,-2.24E-07,-2.33E-07,-9.08E-09</t>
+          <t>-0.464</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>-2.24E-07</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>-2.33E-07</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>-9.08E-09</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>-0.468,-2.29E-07,-2.42E-07,-1.26E-08</t>
+          <t>-0.468</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>-2.29E-07</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>-2.42E-07</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>-1.26E-08</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>-0.472,-2.37E-07,-2.50E-07,-1.37E-08</t>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>-2.37E-07</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>-2.50E-07</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>-1.37E-08</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-0.476,-2.43E-07,-2.59E-07,-1.68E-08</t>
+          <t>-0.476</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>-2.43E-07</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>-2.59E-07</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>-1.68E-08</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>-0.48,-2.51E-07,-2.71E-07,-1.94E-08</t>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>-2.51E-07</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>-2.71E-07</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>-1.94E-08</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>-0.484,-2.57E-07,-2.79E-07,-2.19E-08</t>
+          <t>-0.484</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>-2.57E-07</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>-2.79E-07</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>-2.19E-08</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>-0.488,-2.65E-07,-2.91E-07,-2.61E-08</t>
+          <t>-0.488</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>-2.65E-07</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-2.91E-07</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>-2.61E-08</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>-0.492,-2.73E-07,-3.02E-07,-2.90E-08</t>
+          <t>-0.492</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>-2.73E-07</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>-3.02E-07</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>-2.90E-08</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>-0.496,-2.82E-07,-3.14E-07,-3.14E-08</t>
+          <t>-0.496</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>-2.82E-07</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>-3.14E-07</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>-3.14E-08</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>-0.5,-2.93E-07,-3.26E-07,-3.32E-08</t>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>-2.93E-07</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>-3.26E-07</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>-3.32E-08</t>
         </is>
       </c>
     </row>
